--- a/account_multipayment_advance_it/sample_import_file/sample_file_account_multipayment_invoice_line.xlsx
+++ b/account_multipayment_advance_it/sample_import_file/sample_file_account_multipayment_invoice_line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorio\ODOO15\odoo15\account_multipayment_advance_it\sample_import_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA18139-62B8-44F0-9E26-0B9694322B0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19703241-5B18-4A8F-99F0-27A905F4D50B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +806,7 @@
         <v>112</v>
       </c>
       <c r="E2">
-        <v>4000</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
